--- a/medicine/Psychotrope/Michel_Couvreur/Michel_Couvreur.xlsx
+++ b/medicine/Psychotrope/Michel_Couvreur/Michel_Couvreur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Michel Couvreur (né à Uccle le 25 février 1928 et mort à Bouze-lès-Beaune le 17 août 2013[1]) est un embouteilleur indépendant belge de whisky dont les caves de vieillissement se trouvent à Bouze-lès-Beaune, en Bourgogne.
+Michel Couvreur (né à Uccle le 25 février 1928 et mort à Bouze-lès-Beaune le 17 août 2013) est un embouteilleur indépendant belge de whisky dont les caves de vieillissement se trouvent à Bouze-lès-Beaune, en Bourgogne.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine producteur-négociant de vin de Bourgogne de 1951 à 1978, Michel Couvreur acquiert les caves du Molet à Bouze-lès-Beaune en 1956, puis s'établit en Écosse en 1964, quelques années après avoir transféré le siège de sa société en Angleterre. Il étudie les procédés de fabrication de whisky et en 1971 ferme les bureaux de Londres et se concentre désormais sur la vente de vins sur le marché canadien.
 En 1978, il enregistre sa société comme distillerie de whisky en Écosse et commence la distillation en 1986 à Edradour. La société Michel Couvreur est incorporée en 1990 à Old Meldrum, dans l'Aberdeenshire.
 Il s'est spécialisé dans les whiskies insolites produits selon des méthodes artisanales, comme le Bere Barley, un whisky tenant son nom d'une variété d'orge à faible rendement cultivé aux Orcades. Contrairement à nombre d'embouteilleurs indépendants, Michel Couvreur ne précise jamais sur les étiquettes de ses bouteilles la distillerie où chaque whisky est produit. Ceux qui sont réduits le sont avec de l'eau de source ou de lac d'Écosse importée en citernes.
 Cet embouteilleur considère que « 90 % de la qualité d'un whisky provient du fût, et seulement 10 % du procédé de distillation », et voit l'utilisation de fûts de bourbon, popularisée depuis les années 70 à la place de fûts de xérès, plus rares et plus coûteux, comme une « grande tragédie ».
-Il est décédé le 17 août 2013 à l'âge de 85 ans[2].
+Il est décédé le 17 août 2013 à l'âge de 85 ans.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Whiskies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Couvreur commercialise sous son nom plusieurs types de whiskies, pour la plupart des single malts et des assemblages (blends) de whiskies écossais, vieillis dans des fûts de xérès dans ses caves bourguignones.
 Son whisky vedette, vieilli 12 ans, est un assemblage de 54 malts écossais différents, ambré et tourbeux.
